--- a/va_facility_data_2025-02-20/North Bend VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Bend%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/North Bend VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Bend%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R57639c92a5f94d39b5003636b53eb6f4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R31ea4d59b6434d8189515363366b69b6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4efd1055bca44f6f9f00e18c220a7215"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Raaa5b94cc2f247d2810426bdcd4a8608"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1ec898c23e0345b8a7e41ac8ab18a137"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re12456d0219a452e8a942e93afae5b8a"/>
   </x:sheets>
 </x:workbook>
 </file>
